--- a/src/test/resources/DDT.xlsx
+++ b/src/test/resources/DDT.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="50" windowWidth="13380" windowHeight="4340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="2370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="2" r:id="rId1"/>
     <sheet name="CreatePackage" sheetId="4" r:id="rId2"/>
     <sheet name="CreateUser" sheetId="5" r:id="rId3"/>
     <sheet name="UserCredentials" sheetId="6" r:id="rId4"/>
-    <sheet name="Enquiry" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="Enquiry" sheetId="7" r:id="rId6"/>
+    <sheet name="Create" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>User</t>
   </si>
@@ -213,6 +216,48 @@
   </si>
   <si>
     <t>abhi123</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>Hampi</t>
+  </si>
+  <si>
+    <t>vellur</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Bodhgaya</t>
+  </si>
+  <si>
+    <t>karnataka</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>free_guide</t>
+  </si>
+  <si>
+    <t>free guide,safe_journey</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>visit first</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Desktop\hampiImage.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\User\\Desktop\\Lord-Buddha.jpg</t>
   </si>
 </sst>
 </file>
@@ -325,6 +370,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -372,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,14 +670,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -643,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -657,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -671,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -683,7 +731,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -701,72 +749,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -782,13 +872,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -796,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -804,7 +894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -812,7 +902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -833,18 +923,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -852,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -860,7 +950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -868,7 +958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -876,7 +966,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
@@ -884,7 +974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>48</v>
       </c>
@@ -892,7 +982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
@@ -900,7 +990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -908,7 +998,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
@@ -916,7 +1006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>58</v>
       </c>
@@ -924,7 +1014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
@@ -940,20 +1030,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
@@ -961,7 +1063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
@@ -969,7 +1071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -977,7 +1079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -985,7 +1087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -1000,4 +1102,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/DDT.xlsx
+++ b/src/test/resources/DDT.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="2370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13430" windowHeight="2370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="2" r:id="rId1"/>
     <sheet name="CreatePackage" sheetId="4" r:id="rId2"/>
     <sheet name="CreateUser" sheetId="5" r:id="rId3"/>
     <sheet name="UserCredentials" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
-    <sheet name="Enquiry" sheetId="7" r:id="rId6"/>
-    <sheet name="Create" sheetId="9" r:id="rId7"/>
+    <sheet name="Enquiry" sheetId="7" r:id="rId5"/>
+    <sheet name="Create" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>User</t>
   </si>
@@ -219,45 +217,6 @@
   </si>
   <si>
     <t>pack</t>
-  </si>
-  <si>
-    <t>Hampi</t>
-  </si>
-  <si>
-    <t>vellur</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>Bodhgaya</t>
-  </si>
-  <si>
-    <t>karnataka</t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>free_guide</t>
-  </si>
-  <si>
-    <t>free guide,safe_journey</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>visit first</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Desktop\hampiImage.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\User\\Desktop\\Lord-Buddha.jpg</t>
   </si>
 </sst>
 </file>
@@ -346,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -359,6 +318,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,17 +627,17 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -701,7 +661,7 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -731,7 +691,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -751,14 +711,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,12 +728,8 @@
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -782,12 +738,8 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -796,12 +748,8 @@
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -810,12 +758,8 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -824,12 +768,8 @@
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -838,12 +778,8 @@
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -852,12 +788,8 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -872,10 +804,10 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,15 +855,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -942,7 +874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -950,7 +882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -958,7 +890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -966,7 +898,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
@@ -974,7 +906,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>48</v>
       </c>
@@ -982,7 +914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
@@ -990,7 +922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -998,7 +930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
@@ -1006,7 +938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>58</v>
       </c>
@@ -1014,7 +946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
@@ -1030,29 +962,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,13 +1024,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
